--- a/day2/2WBS分解表.xlsx
+++ b/day2/2WBS分解表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33411\Desktop\项目管理实践\day2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F096A9-65D9-48A3-AE16-AFB2DB010BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C42303-951B-4CF3-BA8E-794EF045B1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="统计汇总" sheetId="1" r:id="rId1"/>
@@ -328,26 +328,31 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF4472C4"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -888,17 +893,18 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="27.90625" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
-    <col min="5" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
